--- a/Traceability Record/WEB/TR web.xlsx
+++ b/Traceability Record/WEB/TR web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="197">
   <si>
     <t>No</t>
   </si>
@@ -540,6 +540,84 @@
   <si>
     <t>W-AD-18</t>
   </si>
+  <si>
+    <t>W-SRS-69</t>
+  </si>
+  <si>
+    <t>W-SRS-70</t>
+  </si>
+  <si>
+    <t>W-SRS-71</t>
+  </si>
+  <si>
+    <t>W-SRS-72</t>
+  </si>
+  <si>
+    <t>W-SRS-73</t>
+  </si>
+  <si>
+    <t>W-SRS-74</t>
+  </si>
+  <si>
+    <t>W-SRS-75</t>
+  </si>
+  <si>
+    <t>W-SRS-76</t>
+  </si>
+  <si>
+    <t>W-SRS-77</t>
+  </si>
+  <si>
+    <t>W-SRS-78</t>
+  </si>
+  <si>
+    <t>W-SRS-79</t>
+  </si>
+  <si>
+    <t>W-SRS-80</t>
+  </si>
+  <si>
+    <t>W-SRS-81</t>
+  </si>
+  <si>
+    <t>W-SRS-82</t>
+  </si>
+  <si>
+    <t>W-SRS-83</t>
+  </si>
+  <si>
+    <t>W-SRS-84</t>
+  </si>
+  <si>
+    <t>W-SRS-85</t>
+  </si>
+  <si>
+    <t>W-SRS-86</t>
+  </si>
+  <si>
+    <t>W-SRS-87</t>
+  </si>
+  <si>
+    <t>W-SRS-88</t>
+  </si>
+  <si>
+    <t>W-SRS-89</t>
+  </si>
+  <si>
+    <t>W-SRS-90</t>
+  </si>
+  <si>
+    <t>W-SRS-91</t>
+  </si>
+  <si>
+    <t>W-SRS-92</t>
+  </si>
+  <si>
+    <t>W-SRS-93</t>
+  </si>
+  <si>
+    <t>W-SRS-94</t>
+  </si>
 </sst>
 </file>
 
@@ -612,7 +690,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,8 +738,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,8 +769,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -712,6 +797,8 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -735,6 +822,8 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1069,8 +1158,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1185,12 +1274,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -1940,22 +2025,22 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -1992,15 +2077,15 @@
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2330,7 +2415,9 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AF24" s="1"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="4"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
@@ -2424,6 +2511,8 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -3434,6 +3523,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3449,8 +3539,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3565,12 +3655,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -4101,10 +4187,10 @@
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="1"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -4112,7 +4198,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="4"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -4146,10 +4232,10 @@
       <c r="S14" s="10"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="1"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -4879,7 +4965,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
+      <c r="T31" s="11"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -6047,6 +6133,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6062,8 +6149,8 @@
   </sheetPr>
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6178,12 +6265,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -6195,30 +6278,30 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -6238,30 +6321,30 @@
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="U3" s="4"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -6281,32 +6364,32 @@
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="W4" s="4"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -6324,32 +6407,32 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="4"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -6367,32 +6450,32 @@
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="4"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -6410,32 +6493,32 @@
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -6453,32 +6536,32 @@
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -6496,33 +6579,33 @@
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="X9" s="4"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -6539,33 +6622,33 @@
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="4"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="4"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -6582,34 +6665,34 @@
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -6625,34 +6708,34 @@
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -6668,35 +6751,35 @@
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -6711,35 +6794,35 @@
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -6754,36 +6837,36 @@
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="4"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -6797,36 +6880,36 @@
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="1">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="4"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="4"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -6840,29 +6923,29 @@
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="1">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -6870,7 +6953,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AB17" s="4"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -6883,29 +6966,29 @@
     </row>
     <row r="18" spans="1:45">
       <c r="A18" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="4"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -6914,7 +6997,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="4"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -6926,21 +7009,21 @@
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -6948,8 +7031,8 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -6958,7 +7041,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -6969,21 +7052,21 @@
     </row>
     <row r="20" spans="1:45">
       <c r="A20" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -7001,8 +7084,8 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -7019,21 +7102,21 @@
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="1">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -7042,7 +7125,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="4"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -7051,7 +7134,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -7069,10 +7152,10 @@
     </row>
     <row r="22" spans="1:45">
       <c r="A22" s="1">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7092,7 +7175,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="4"/>
+      <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -7101,7 +7184,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -7119,10 +7202,10 @@
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="1">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7142,7 +7225,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="4"/>
+      <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -7151,7 +7234,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -7167,8 +7250,12 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="1">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -7197,7 +7284,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -7212,8 +7299,12 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="1">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -7243,7 +7334,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -7257,8 +7348,12 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="1">
+        <v>91</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -7289,7 +7384,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="4"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -7302,8 +7397,12 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="1">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -7334,7 +7433,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="4"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -7347,8 +7446,12 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="1">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -7379,7 +7482,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="AG28" s="4"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -7392,8 +7495,12 @@
       <c r="AS28" s="1"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="1">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -7424,7 +7531,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" s="4"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -7437,8 +7544,6 @@
       <c r="AS29" s="1"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -7987,6 +8092,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8002,8 +8108,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8118,12 +8224,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -23373,8 +23475,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:Z70"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23489,12 +23591,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -24244,7 +24342,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="5"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>

--- a/Traceability Record/WEB/TR web.xlsx
+++ b/Traceability Record/WEB/TR web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -618,6 +618,42 @@
   <si>
     <t>W-SRS-94</t>
   </si>
+  <si>
+    <t>W-AD-19</t>
+  </si>
+  <si>
+    <t>W-AD-20</t>
+  </si>
+  <si>
+    <t>W-AD-21</t>
+  </si>
+  <si>
+    <t>W-AD-22</t>
+  </si>
+  <si>
+    <t>W-AD-23</t>
+  </si>
+  <si>
+    <t>W-AD-24</t>
+  </si>
+  <si>
+    <t>W-AD-25</t>
+  </si>
+  <si>
+    <t>W-AD-26</t>
+  </si>
+  <si>
+    <t>W-AD-27</t>
+  </si>
+  <si>
+    <t>W-AD-28</t>
+  </si>
+  <si>
+    <t>W-AD-29</t>
+  </si>
+  <si>
+    <t>W-AD-30</t>
+  </si>
 </sst>
 </file>
 
@@ -3523,7 +3559,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6133,7 +6168,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6149,7 +6183,7 @@
   </sheetPr>
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -8092,7 +8126,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8108,8 +8141,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9154,6 +9187,12 @@
       <c r="AS19" s="1"/>
     </row>
     <row r="20" spans="1:45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -9173,7 +9212,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -9199,6 +9238,12 @@
       <c r="AS20" s="1"/>
     </row>
     <row r="21" spans="1:45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -9219,7 +9264,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -9244,6 +9289,12 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -9265,7 +9316,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="4"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -9289,6 +9340,12 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -9311,7 +9368,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="4"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -9334,6 +9391,12 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -9357,7 +9420,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="4"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -9379,6 +9442,12 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -9403,7 +9472,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="AA25" s="4"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -9424,6 +9493,12 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -9449,7 +9524,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -9469,6 +9544,12 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -9495,7 +9576,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AC27" s="4"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -9514,6 +9595,12 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9541,7 +9628,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -9559,6 +9646,12 @@
       <c r="AS28" s="1"/>
     </row>
     <row r="29" spans="1:45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -9587,7 +9680,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="AE29" s="4"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -9604,6 +9697,12 @@
       <c r="AS29" s="1"/>
     </row>
     <row r="30" spans="1:45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9633,7 +9732,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+      <c r="AF30" s="4"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -9649,6 +9748,12 @@
       <c r="AS30" s="1"/>
     </row>
     <row r="31" spans="1:45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -9679,7 +9784,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AG31" s="4"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -11938,6 +12043,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Traceability Record/WEB/TR web.xlsx
+++ b/Traceability Record/WEB/TR web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="208">
   <si>
     <t>No</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>W-UI-19</t>
-  </si>
-  <si>
-    <t>W-UI-20</t>
   </si>
   <si>
     <t>DB-01</t>
@@ -6401,7 +6398,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6444,7 +6441,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6487,7 +6484,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6530,7 +6527,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6573,7 +6570,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6616,7 +6613,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6659,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6702,7 +6699,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6745,7 +6742,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6788,7 +6785,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6831,7 +6828,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6874,7 +6871,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6917,7 +6914,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6960,7 +6957,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -7003,7 +7000,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -7046,7 +7043,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -7089,7 +7086,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -7139,7 +7136,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -7189,7 +7186,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7239,7 +7236,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7288,7 +7285,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -7337,7 +7334,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -7386,7 +7383,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -7435,7 +7432,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7484,7 +7481,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7533,7 +7530,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -8141,7 +8138,7 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
@@ -8732,7 +8729,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8783,7 +8780,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8834,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8885,7 +8882,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8936,7 +8933,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8987,7 +8984,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -9038,7 +9035,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9089,7 +9086,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9140,7 +9137,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9191,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9242,7 +9239,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9293,7 +9290,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9344,7 +9341,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -9395,7 +9392,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -9446,7 +9443,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -9497,7 +9494,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9548,7 +9545,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -9599,7 +9596,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -9650,7 +9647,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9701,7 +9698,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -9752,7 +9749,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -12043,7 +12040,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -12756,7 +12752,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -12807,7 +12803,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -12858,7 +12854,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -12909,7 +12905,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -15890,8 +15886,8 @@
   </sheetPr>
   <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16006,12 +16002,8 @@
       <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -16262,15 +16254,15 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="4"/>
+      <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
@@ -16309,8 +16301,8 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -16320,7 +16312,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="4"/>
+      <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -16364,17 +16356,17 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
+      <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AK8" s="4"/>
+      <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
@@ -16422,10 +16414,10 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
+      <c r="AG9" s="4"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="4"/>
+      <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -16447,7 +16439,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -16460,11 +16452,11 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -16478,7 +16470,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
-      <c r="AK10" s="4"/>
+      <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -16500,11 +16492,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -16527,7 +16519,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
+      <c r="AH11" s="4"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -16551,11 +16543,11 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -16564,7 +16556,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -16573,8 +16565,8 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -16604,11 +16596,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -16628,8 +16620,8 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -16667,7 +16659,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -16719,7 +16711,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -16727,8 +16719,8 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -16773,8 +16765,8 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -16823,13 +16815,13 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -16877,12 +16869,12 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="4"/>
+      <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -16890,7 +16882,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="4"/>
+      <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
@@ -16935,13 +16927,13 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -16991,11 +16983,11 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="4"/>
+      <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
@@ -17010,12 +17002,6 @@
       <c r="AT20" s="6"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -17047,7 +17033,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="4"/>
+      <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
@@ -19771,6 +19757,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -19922,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -19973,7 +19960,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -20024,7 +20011,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -20075,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -20126,7 +20113,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -20177,7 +20164,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -20228,7 +20215,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -20279,7 +20266,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -20330,7 +20317,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>

--- a/Traceability Record/WEB/TR web.xlsx
+++ b/Traceability Record/WEB/TR web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -765,6 +765,12 @@
   <si>
     <t>W-SQ-28</t>
   </si>
+  <si>
+    <t>DB-15</t>
+  </si>
+  <si>
+    <t>DB-16</t>
+  </si>
 </sst>
 </file>
 
@@ -11878,7 +11884,7 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
@@ -15778,7 +15784,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -19708,8 +19713,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20559,6 +20564,12 @@
       <c r="AS15" s="1"/>
     </row>
     <row r="16" spans="1:45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -20591,9 +20602,9 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -20603,7 +20614,13 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="3:45">
+    <row r="17" spans="1:45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -20614,7 +20631,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -20648,7 +20665,7 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="3:45">
+    <row r="18" spans="1:45">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -20693,7 +20710,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="3:45">
+    <row r="19" spans="1:45">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -20738,7 +20755,7 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="3:45">
+    <row r="20" spans="1:45">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -20783,7 +20800,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="3:45">
+    <row r="21" spans="1:45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20828,7 +20845,7 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="3:45">
+    <row r="22" spans="1:45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -20873,7 +20890,7 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="3:45">
+    <row r="23" spans="1:45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -20918,7 +20935,7 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="3:45">
+    <row r="24" spans="1:45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -20963,7 +20980,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="3:45">
+    <row r="25" spans="1:45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -21008,7 +21025,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="3:45">
+    <row r="26" spans="1:45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -21053,7 +21070,7 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="3:45">
+    <row r="27" spans="1:45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -21098,7 +21115,7 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="3:45">
+    <row r="28" spans="1:45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -21143,7 +21160,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="3:45">
+    <row r="29" spans="1:45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -21188,7 +21205,7 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="3:45">
+    <row r="30" spans="1:45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -21233,7 +21250,7 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="3:45">
+    <row r="31" spans="1:45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -21278,7 +21295,7 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="3:45">
+    <row r="32" spans="1:45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -23523,6 +23540,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Traceability Record/WEB/TR web.xlsx
+++ b/Traceability Record/WEB/TR web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="250">
   <si>
     <t>No</t>
   </si>
@@ -550,15 +550,6 @@
     <t>W-SRS-72</t>
   </si>
   <si>
-    <t>W-SRS-73</t>
-  </si>
-  <si>
-    <t>W-SRS-74</t>
-  </si>
-  <si>
-    <t>W-SRS-75</t>
-  </si>
-  <si>
     <t>W-SRS-76</t>
   </si>
   <si>
@@ -771,6 +762,21 @@
   <si>
     <t>DB-16</t>
   </si>
+  <si>
+    <t>W-AD-33</t>
+  </si>
+  <si>
+    <t>W-AD-34</t>
+  </si>
+  <si>
+    <t>W-AD-35</t>
+  </si>
+  <si>
+    <t>W-SRS-73</t>
+  </si>
+  <si>
+    <t>W-SRS-74</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,12 +838,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF595959"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,10 +930,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,6 +939,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1334,8 +1331,8 @@
   </sheetPr>
   <dimension ref="A1:AR82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1455,13 +1452,13 @@
         <v>40</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -1498,20 +1495,20 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -1522,7 +1519,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1546,20 +1543,20 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1570,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1594,20 +1591,20 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -1642,20 +1639,20 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -1669,9 +1666,9 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1690,20 +1687,20 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -1738,20 +1735,20 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1761,8 +1758,8 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1786,20 +1783,20 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1809,7 +1806,7 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1834,20 +1831,20 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -1857,7 +1854,7 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1882,20 +1879,20 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -1905,9 +1902,9 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1930,20 +1927,20 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1953,14 +1950,14 @@
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1978,20 +1975,20 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -2001,14 +1998,14 @@
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2017,7 +2014,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2026,20 +2023,20 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="5"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -2049,13 +2046,13 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2074,20 +2071,20 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -2097,13 +2094,13 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2122,20 +2119,20 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -2145,45 +2142,45 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -2193,14 +2190,14 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2208,30 +2205,30 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="4"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -2242,12 +2239,12 @@
         <v>57</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2266,16 +2263,20 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -2286,13 +2287,13 @@
         <v>58</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -2310,16 +2311,20 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -2330,13 +2335,13 @@
         <v>59</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -2364,10 +2369,10 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2378,13 +2383,13 @@
         <v>60</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -2412,10 +2417,10 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -2426,13 +2431,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -2460,10 +2465,10 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -2473,24 +2478,24 @@
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -2508,10 +2513,10 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -2523,18 +2528,18 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -2553,13 +2558,13 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -2571,13 +2576,13 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2585,9 +2590,9 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -2604,10 +2609,10 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -2620,17 +2625,17 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -2652,10 +2657,10 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -2669,12 +2674,12 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -2700,10 +2705,10 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -2718,12 +2723,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2748,10 +2753,10 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
@@ -2766,13 +2771,13 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2796,10 +2801,10 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
@@ -2814,20 +2819,20 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="4"/>
+      <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
@@ -2844,10 +2849,10 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
@@ -2864,13 +2869,13 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -2892,10 +2897,10 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
@@ -2912,14 +2917,14 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -2929,10 +2934,10 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
@@ -2940,8 +2945,12 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -2952,7 +2961,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2960,7 +2969,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -2980,8 +2989,12 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="6"/>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2992,7 +3005,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3000,7 +3013,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3010,8 +3023,22 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -3023,14 +3050,14 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3040,8 +3067,22 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -3053,133 +3094,285 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="4"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:36">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:36">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:36">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:36">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:36">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:36">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+    </row>
+    <row r="43" spans="1:40">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3197,7 +3390,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:40">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3215,7 +3408,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:40">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3233,7 +3426,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:40">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3251,7 +3444,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:40">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3269,7 +3462,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:40">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3666,6 +3859,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3681,8 +3875,8 @@
   </sheetPr>
   <dimension ref="A1:AR82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3801,13 +3995,13 @@
         <v>40</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -3819,1258 +4013,1398 @@
       <c r="A2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="1"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="10"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
+      <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="8"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="8"/>
+      <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -5092,7 +5426,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="4"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -5107,10 +5441,15 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -5132,7 +5471,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="4"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
@@ -5147,10 +5486,15 @@
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
+      <c r="AI34" s="4"/>
       <c r="AJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -5173,9 +5517,9 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="4"/>
+      <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="4"/>
+      <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -5187,10 +5531,15 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
+      <c r="AI35" s="4"/>
       <c r="AJ35" s="5"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -5213,9 +5562,9 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -5228,9 +5577,14 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -5253,7 +5607,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="4"/>
+      <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
@@ -5269,8 +5623,13 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
@@ -5294,7 +5653,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="4"/>
+      <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
@@ -5309,10 +5668,15 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5334,7 +5698,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="4"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
@@ -5349,10 +5713,15 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5375,7 +5744,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="4"/>
+      <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
@@ -5389,11 +5758,13 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
-    </row>
-    <row r="41" spans="1:36">
-      <c r="A41" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -5415,9 +5786,9 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="4"/>
+      <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="4"/>
+      <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -5429,30 +5800,55 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-    </row>
-    <row r="42" spans="1:36">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5474,7 +5870,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:41">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5496,7 +5892,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:41">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5518,7 +5914,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:41">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5540,7 +5936,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:41">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5562,7 +5958,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:41">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6351,6 +6747,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6367,7 +6764,7 @@
   <dimension ref="A1:AS73"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6487,13 +6884,13 @@
         <v>40</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -6503,7 +6900,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6543,7 +6940,7 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6583,7 +6980,7 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6623,7 +7020,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6663,7 +7060,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6703,7 +7100,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6743,7 +7140,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6783,7 +7180,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6823,7 +7220,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6863,7 +7260,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6905,7 +7302,7 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6947,7 +7344,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6988,7 +7385,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -7028,7 +7425,7 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7069,7 +7466,7 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7110,7 +7507,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7151,7 +7548,7 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7192,7 +7589,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7233,7 +7630,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7279,7 +7676,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7325,7 +7722,7 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7371,7 +7768,7 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7417,7 +7814,7 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7455,7 +7852,7 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7493,7 +7890,7 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -7531,7 +7928,7 @@
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B27"/>
       <c r="AI27" s="7"/>
@@ -7544,7 +7941,7 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28"/>
       <c r="AJ28" s="7"/>
@@ -7557,7 +7954,7 @@
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B29"/>
       <c r="AK29" s="7"/>
@@ -7570,7 +7967,7 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B30"/>
       <c r="AK30" s="7"/>
@@ -7583,7 +7980,7 @@
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B31"/>
       <c r="AK31" s="7"/>
@@ -7596,7 +7993,7 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32"/>
       <c r="AK32" s="7"/>
@@ -7945,8 +8342,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8068,13 +8465,13 @@
         <v>40</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
@@ -9005,7 +9402,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9056,7 +9453,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9107,7 +9504,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9158,7 +9555,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -9209,7 +9606,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -9260,7 +9657,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -9311,7 +9708,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9362,7 +9759,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -9413,7 +9810,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -9464,7 +9861,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9515,7 +9912,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -9566,7 +9963,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -9617,7 +10014,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -9668,7 +10065,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -9715,6 +10112,12 @@
       <c r="AS33" s="1"/>
     </row>
     <row r="34" spans="1:45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -9760,6 +10163,12 @@
       <c r="AS34" s="1"/>
     </row>
     <row r="35" spans="1:45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9796,7 +10205,7 @@
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
+      <c r="AM35" s="4"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -9805,6 +10214,12 @@
       <c r="AS35" s="1"/>
     </row>
     <row r="36" spans="1:45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9842,7 +10257,7 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
+      <c r="AN36" s="4"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="1"/>
@@ -12007,13 +12422,13 @@
         <v>40</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
@@ -12791,7 +13206,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -12842,7 +13257,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12864,7 +13279,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -12893,7 +13308,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -12944,7 +13359,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -12995,7 +13410,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -13046,7 +13461,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13097,7 +13512,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13148,7 +13563,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13199,7 +13614,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13250,7 +13665,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -13301,7 +13716,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -13352,7 +13767,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -13403,7 +13818,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -15800,7 +16215,7 @@
   <dimension ref="A1:AT82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15922,13 +16337,13 @@
         <v>40</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
@@ -16240,7 +16655,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
@@ -16396,7 +16811,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
+      <c r="AN10" s="4"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
@@ -16448,7 +16863,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
@@ -16500,7 +16915,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
@@ -16929,7 +17344,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -16981,7 +17396,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -17033,7 +17448,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -19713,7 +20128,7 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
@@ -19836,13 +20251,13 @@
         <v>40</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
@@ -20313,7 +20728,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -20364,7 +20779,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -20415,7 +20830,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -20466,7 +20881,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -20517,7 +20932,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -20568,7 +20983,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -20619,7 +21034,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -23540,7 +23955,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -23556,7 +23970,7 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
